--- a/Code/Results/Cases/Case_2_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.075826483996337</v>
+        <v>0.3504725059204077</v>
       </c>
       <c r="C2">
-        <v>0.1731363716447589</v>
+        <v>0.06187472207288636</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.093068459964755</v>
+        <v>0.7791858807356533</v>
       </c>
       <c r="F2">
-        <v>1.723690949699261</v>
+        <v>2.084801462075916</v>
       </c>
       <c r="G2">
-        <v>0.1408119964609575</v>
+        <v>0.3355176703624885</v>
       </c>
       <c r="H2">
-        <v>0.177963296582341</v>
+        <v>0.5226100401035509</v>
       </c>
       <c r="I2">
-        <v>0.1376232352024198</v>
+        <v>0.3915410455148978</v>
       </c>
       <c r="J2">
-        <v>0.01191245541858699</v>
+        <v>0.03220732150366157</v>
       </c>
       <c r="K2">
-        <v>1.170218333852006</v>
+        <v>0.3683213754531209</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6200931958758602</v>
+        <v>1.650432243815047</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9402367785014007</v>
+        <v>0.3067962237674919</v>
       </c>
       <c r="C3">
-        <v>0.1544707410965884</v>
+        <v>0.0557287456371256</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.9577510030292586</v>
+        <v>0.7465023004269682</v>
       </c>
       <c r="F3">
-        <v>1.560711444254892</v>
+        <v>2.059924279027712</v>
       </c>
       <c r="G3">
-        <v>0.1457028223362862</v>
+        <v>0.3413374901511581</v>
       </c>
       <c r="H3">
-        <v>0.1861651294262039</v>
+        <v>0.5289019443049661</v>
       </c>
       <c r="I3">
-        <v>0.1490674872054942</v>
+        <v>0.3985927972270229</v>
       </c>
       <c r="J3">
-        <v>0.01246950633302113</v>
+        <v>0.03271019660061292</v>
       </c>
       <c r="K3">
-        <v>1.025974003349774</v>
+        <v>0.3214746140497766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6473047407850814</v>
+        <v>1.675728951735252</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8568972386085534</v>
+        <v>0.2798900867041709</v>
       </c>
       <c r="C4">
-        <v>0.1429992536033353</v>
+        <v>0.05193563547808822</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.8756805606913929</v>
+        <v>0.7267885129920586</v>
       </c>
       <c r="F4">
-        <v>1.463628549173393</v>
+        <v>2.045942136159567</v>
       </c>
       <c r="G4">
-        <v>0.149388871600614</v>
+        <v>0.3452129829686967</v>
       </c>
       <c r="H4">
-        <v>0.1916345433918885</v>
+        <v>0.5330191474058488</v>
       </c>
       <c r="I4">
-        <v>0.1566177678172984</v>
+        <v>0.4031865660489879</v>
       </c>
       <c r="J4">
-        <v>0.01285804022703108</v>
+        <v>0.03304176368915712</v>
       </c>
       <c r="K4">
-        <v>0.937300752133325</v>
+        <v>0.2925936336646373</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6663611676186108</v>
+        <v>1.692426282854726</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8229065725248574</v>
+        <v>0.2689041013607323</v>
       </c>
       <c r="C5">
-        <v>0.1383207593931246</v>
+        <v>0.05038512744557977</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.8424626714523811</v>
+        <v>0.7188440264367699</v>
       </c>
       <c r="F5">
-        <v>1.424759385509716</v>
+        <v>2.040568928464197</v>
       </c>
       <c r="G5">
-        <v>0.1510543445225494</v>
+        <v>0.3468680766770973</v>
       </c>
       <c r="H5">
-        <v>0.1939687844852998</v>
+        <v>0.5347607918027499</v>
       </c>
       <c r="I5">
-        <v>0.159821424019988</v>
+        <v>0.4051248675279853</v>
       </c>
       <c r="J5">
-        <v>0.01302754314199195</v>
+        <v>0.03318260490973124</v>
       </c>
       <c r="K5">
-        <v>0.9011310700658441</v>
+        <v>0.2807958410727167</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6746920505531264</v>
+        <v>1.699523170415851</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8172604864129198</v>
+        <v>0.2670786107846936</v>
       </c>
       <c r="C6">
-        <v>0.1375436414582794</v>
+        <v>0.05012738094880831</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.8369597390111636</v>
+        <v>0.7175302288004985</v>
       </c>
       <c r="F6">
-        <v>1.418345401447596</v>
+        <v>2.039696306836731</v>
       </c>
       <c r="G6">
-        <v>0.1513405248644517</v>
+        <v>0.3471474769070113</v>
       </c>
       <c r="H6">
-        <v>0.1943626482779628</v>
+        <v>0.5350538467618442</v>
       </c>
       <c r="I6">
-        <v>0.1603609148223537</v>
+        <v>0.4054507234423745</v>
       </c>
       <c r="J6">
-        <v>0.01305634900194352</v>
+        <v>0.03320633701843612</v>
       </c>
       <c r="K6">
-        <v>0.8951228143387482</v>
+        <v>0.2788351262796027</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6761088085522715</v>
+        <v>1.700719263977774</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.85643895577644</v>
+        <v>0.279742011926345</v>
       </c>
       <c r="C7">
-        <v>0.1429361744202993</v>
+        <v>0.05191474401610208</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.8752316922891055</v>
+        <v>0.7266810103270984</v>
       </c>
       <c r="F7">
-        <v>1.463101615013827</v>
+        <v>2.045868357314873</v>
       </c>
       <c r="G7">
-        <v>0.1494106820353096</v>
+        <v>0.345234997455691</v>
       </c>
       <c r="H7">
-        <v>0.1916656015958722</v>
+        <v>0.5330423773111441</v>
       </c>
       <c r="I7">
-        <v>0.1566604659661852</v>
+        <v>0.4032124382973352</v>
       </c>
       <c r="J7">
-        <v>0.01286028163648201</v>
+        <v>0.03304363995398329</v>
       </c>
       <c r="K7">
-        <v>0.9368131051960802</v>
+        <v>0.2924346390354913</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6664712647787638</v>
+        <v>1.692520809773256</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02908861693507</v>
+        <v>0.3354318006182098</v>
       </c>
       <c r="C8">
-        <v>0.1667020072572143</v>
+        <v>0.05975968994493996</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.046182413879265</v>
+        <v>0.7678430900747486</v>
       </c>
       <c r="F8">
-        <v>1.666839452121579</v>
+        <v>2.075955290454033</v>
       </c>
       <c r="G8">
-        <v>0.1423514168460684</v>
+        <v>0.3374615437623412</v>
       </c>
       <c r="H8">
-        <v>0.1806991162974469</v>
+        <v>0.5247267781224139</v>
       </c>
       <c r="I8">
-        <v>0.1414576323330703</v>
+        <v>0.3939176607297634</v>
       </c>
       <c r="J8">
-        <v>0.01209455314404551</v>
+        <v>0.03237597583319562</v>
       </c>
       <c r="K8">
-        <v>1.120500116709223</v>
+        <v>0.3521933543580644</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6289727321404683</v>
+        <v>1.658912521137623</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.367334721964767</v>
+        <v>0.4439056410939202</v>
       </c>
       <c r="C9">
-        <v>0.2132768143944332</v>
+        <v>0.07498523025151371</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.390879640478843</v>
+        <v>0.8513757701753946</v>
       </c>
       <c r="F9">
-        <v>2.092896367806148</v>
+        <v>2.145235300228478</v>
       </c>
       <c r="G9">
-        <v>0.1343255125340406</v>
+        <v>0.3246222282724744</v>
       </c>
       <c r="H9">
-        <v>0.1628027352490093</v>
+        <v>0.5104350354312857</v>
       </c>
       <c r="I9">
-        <v>0.1160232008868949</v>
+        <v>0.3777880681614896</v>
       </c>
       <c r="J9">
-        <v>0.01098676336090065</v>
+        <v>0.03124795385230783</v>
       </c>
       <c r="K9">
-        <v>1.480260938757368</v>
+        <v>0.4684216205588996</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5752705366246147</v>
+        <v>1.602267093407747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.616227817992694</v>
+        <v>0.5231218670642193</v>
       </c>
       <c r="C10">
-        <v>0.2475638233252795</v>
+        <v>0.0860705658720633</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.652041330313793</v>
+        <v>0.9144764519537318</v>
       </c>
       <c r="F10">
-        <v>2.426343666055146</v>
+        <v>2.202443894595731</v>
       </c>
       <c r="G10">
-        <v>0.1325588254795989</v>
+        <v>0.3166649825801784</v>
       </c>
       <c r="H10">
-        <v>0.1521027475956771</v>
+        <v>0.5011633684872621</v>
       </c>
       <c r="I10">
-        <v>0.100333409257388</v>
+        <v>0.3672200502992418</v>
       </c>
       <c r="J10">
-        <v>0.01044959413540525</v>
+        <v>0.03053018056527534</v>
       </c>
       <c r="K10">
-        <v>1.744925261899994</v>
+        <v>0.5531967362810803</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.549664358237635</v>
+        <v>1.56631656932089</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.72968014542883</v>
+        <v>0.5590489308034989</v>
       </c>
       <c r="C11">
-        <v>0.2631982145271792</v>
+        <v>0.09109082501568366</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1.773095103334981</v>
+        <v>0.9435615044658192</v>
       </c>
       <c r="F11">
-        <v>2.583506487275542</v>
+        <v>2.229849005995732</v>
       </c>
       <c r="G11">
-        <v>0.1327904178811536</v>
+        <v>0.3133676216437919</v>
       </c>
       <c r="H11">
-        <v>0.1478256813399739</v>
+        <v>0.4972122023250094</v>
       </c>
       <c r="I11">
-        <v>0.09392383976963714</v>
+        <v>0.3626916345092983</v>
       </c>
       <c r="J11">
-        <v>0.01027408697522603</v>
+        <v>0.03022784936530343</v>
       </c>
       <c r="K11">
-        <v>1.865555565718267</v>
+        <v>0.5916224150017513</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5414400160363186</v>
+        <v>1.551196860365067</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.772686867026721</v>
+        <v>0.5726372330994423</v>
       </c>
       <c r="C12">
-        <v>0.2691257805410743</v>
+        <v>0.09298853506096805</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.819306620465952</v>
+        <v>0.9546300566779991</v>
       </c>
       <c r="F12">
-        <v>2.643901530750696</v>
+        <v>2.240425743223255</v>
       </c>
       <c r="G12">
-        <v>0.1330394477933652</v>
+        <v>0.3121655423278682</v>
       </c>
       <c r="H12">
-        <v>0.1462962920215318</v>
+        <v>0.4957543403758962</v>
       </c>
       <c r="I12">
-        <v>0.09160831980716289</v>
+        <v>0.3610170429211745</v>
       </c>
       <c r="J12">
-        <v>0.0102183245258054</v>
+        <v>0.03011685169712308</v>
       </c>
       <c r="K12">
-        <v>1.911281909809787</v>
+        <v>0.6061525108909223</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5388556344360893</v>
+        <v>1.545649329663831</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.763422410247586</v>
+        <v>0.5697114963139143</v>
       </c>
       <c r="C13">
-        <v>0.2678488236130221</v>
+        <v>0.09257998021055869</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.809336834472745</v>
+        <v>0.9522438143046514</v>
       </c>
       <c r="F13">
-        <v>2.630853623147317</v>
+        <v>2.238138994601371</v>
       </c>
       <c r="G13">
-        <v>0.1329784316073983</v>
+        <v>0.3124223577673675</v>
       </c>
       <c r="H13">
-        <v>0.1466215706757339</v>
+        <v>0.4960666105640144</v>
       </c>
       <c r="I13">
-        <v>0.0921019267037817</v>
+        <v>0.3613759057855379</v>
       </c>
       <c r="J13">
-        <v>0.01022984480443867</v>
+        <v>0.03014060170789001</v>
       </c>
       <c r="K13">
-        <v>1.901431651375674</v>
+        <v>0.6030241373660203</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5393880276812411</v>
+        <v>1.546836166621901</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.733217365802204</v>
+        <v>0.5601671841048983</v>
       </c>
       <c r="C14">
-        <v>0.2636857243167583</v>
+        <v>0.09124701862415918</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.77688922740127</v>
+        <v>0.9444710251801354</v>
       </c>
       <c r="F14">
-        <v>2.588457004804098</v>
+        <v>2.23071516917642</v>
       </c>
       <c r="G14">
-        <v>0.1328075978828451</v>
+        <v>0.3132677916159494</v>
       </c>
       <c r="H14">
-        <v>0.1476980170098869</v>
+        <v>0.4970914942155034</v>
       </c>
       <c r="I14">
-        <v>0.09373106131309861</v>
+        <v>0.3625530582020726</v>
       </c>
       <c r="J14">
-        <v>0.01026928016985806</v>
+        <v>0.03021864754398251</v>
       </c>
       <c r="K14">
-        <v>1.869316495523208</v>
+        <v>0.5928182382030514</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5412165504171895</v>
+        <v>1.550736892075591</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.714722102471939</v>
+        <v>0.554318843659388</v>
       </c>
       <c r="C15">
-        <v>0.2611366957250425</v>
+        <v>0.09043010107218663</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1.757063943760059</v>
+        <v>0.9397170875184315</v>
       </c>
       <c r="F15">
-        <v>2.562605483776366</v>
+        <v>2.22619379391017</v>
       </c>
       <c r="G15">
-        <v>0.1327243522165702</v>
+        <v>0.313791713475851</v>
       </c>
       <c r="H15">
-        <v>0.1483692887513897</v>
+        <v>0.4977242613360531</v>
       </c>
       <c r="I15">
-        <v>0.09474370817976663</v>
+        <v>0.3632793389189306</v>
       </c>
       <c r="J15">
-        <v>0.01029485340951375</v>
+        <v>0.03026690750081507</v>
       </c>
       <c r="K15">
-        <v>1.849651456847425</v>
+        <v>0.586564085305298</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.542406756949191</v>
+        <v>1.55314939071755</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.608819046142173</v>
+        <v>0.5207716867633394</v>
       </c>
       <c r="C16">
-        <v>0.2465429775860457</v>
+        <v>0.08574201717631524</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.644179420548866</v>
+        <v>0.9125833263486953</v>
       </c>
       <c r="F16">
-        <v>2.416190701914957</v>
+        <v>2.200680729225098</v>
       </c>
       <c r="G16">
-        <v>0.132565567972712</v>
+        <v>0.3168869776419783</v>
       </c>
       <c r="H16">
-        <v>0.1523945927394408</v>
+        <v>0.5014269527496751</v>
       </c>
       <c r="I16">
-        <v>0.1007675217066168</v>
+        <v>0.367521615999717</v>
       </c>
       <c r="J16">
-        <v>0.01046251623070305</v>
+        <v>0.03055042622823301</v>
       </c>
       <c r="K16">
-        <v>1.737047544338338</v>
+        <v>0.5506826552964412</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5502738953463933</v>
+        <v>1.567329557035563</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.543917833545862</v>
+        <v>0.5001631198233554</v>
       </c>
       <c r="C17">
-        <v>0.2376009466806437</v>
+        <v>0.08286018043256149</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1.575537154043872</v>
+        <v>0.8960350271721609</v>
       </c>
       <c r="F17">
-        <v>2.327836486964756</v>
+        <v>2.185383246821175</v>
       </c>
       <c r="G17">
-        <v>0.1327419104066294</v>
+        <v>0.3188685427063618</v>
       </c>
       <c r="H17">
-        <v>0.1550188900833405</v>
+        <v>0.5037667264434873</v>
       </c>
       <c r="I17">
-        <v>0.1046541705091197</v>
+        <v>0.3701956506620014</v>
       </c>
       <c r="J17">
-        <v>0.01058355547816703</v>
+        <v>0.0307305582177726</v>
       </c>
       <c r="K17">
-        <v>1.668037141312169</v>
+        <v>0.5286343349047513</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5560030605964812</v>
+        <v>1.576345118237626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.506609223819282</v>
+        <v>0.4882994276139243</v>
       </c>
       <c r="C18">
-        <v>0.2324610956490147</v>
+        <v>0.08120051173968079</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1.536264623413729</v>
+        <v>0.8865526728451982</v>
       </c>
       <c r="F18">
-        <v>2.277526848846875</v>
+        <v>2.176714462415873</v>
       </c>
       <c r="G18">
-        <v>0.1329399862943319</v>
+        <v>0.3200386235599169</v>
       </c>
       <c r="H18">
-        <v>0.1565835476942752</v>
+        <v>0.505137590754174</v>
       </c>
       <c r="I18">
-        <v>0.1069577267384254</v>
+        <v>0.3717599423465963</v>
       </c>
       <c r="J18">
-        <v>0.01065960372048558</v>
+        <v>0.03083644138678032</v>
       </c>
       <c r="K18">
-        <v>1.62836530572892</v>
+        <v>0.5159396990398193</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5596182084082955</v>
+        <v>1.581646786490978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.493980407786353</v>
+        <v>0.4842808612495162</v>
       </c>
       <c r="C19">
-        <v>0.230721355884441</v>
+        <v>0.08063821715454367</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1.523002084038723</v>
+        <v>0.8833482576496152</v>
       </c>
       <c r="F19">
-        <v>2.260577637252581</v>
+        <v>2.173801660684092</v>
       </c>
       <c r="G19">
-        <v>0.1330232852320989</v>
+        <v>0.3204399973077514</v>
       </c>
       <c r="H19">
-        <v>0.1571226431234791</v>
+        <v>0.5056060499691739</v>
       </c>
       <c r="I19">
-        <v>0.1077491549602634</v>
+        <v>0.3722940914518347</v>
       </c>
       <c r="J19">
-        <v>0.01068643333453778</v>
+        <v>0.03087268219696782</v>
       </c>
       <c r="K19">
-        <v>1.614936360978845</v>
+        <v>0.511639303703447</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5608960716321576</v>
+        <v>1.583461775681727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.550824438202</v>
+        <v>0.5023579977261932</v>
       </c>
       <c r="C20">
-        <v>0.2385524797606848</v>
+        <v>0.0831671763391455</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1.582822312029236</v>
+        <v>0.8977929178045372</v>
       </c>
       <c r="F20">
-        <v>2.337188574888785</v>
+        <v>2.186998239914985</v>
       </c>
       <c r="G20">
-        <v>0.132713048220829</v>
+        <v>0.3186544605405999</v>
       </c>
       <c r="H20">
-        <v>0.1547337754195439</v>
+        <v>0.5035150567870872</v>
       </c>
       <c r="I20">
-        <v>0.104233337145665</v>
+        <v>0.3699082768318718</v>
       </c>
       <c r="J20">
-        <v>0.01056999961467042</v>
+        <v>0.0307111472257624</v>
       </c>
       <c r="K20">
-        <v>1.675381141513014</v>
+        <v>0.5309827707937416</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5553598102559363</v>
+        <v>1.575373371212507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.742088005375138</v>
+        <v>0.562971034457064</v>
       </c>
       <c r="C21">
-        <v>0.2649083176779641</v>
+        <v>0.0916386336742363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1.786409404007344</v>
+        <v>0.946752597939394</v>
       </c>
       <c r="F21">
-        <v>2.600885226434769</v>
+        <v>2.232890321555089</v>
       </c>
       <c r="G21">
-        <v>0.1328532937108875</v>
+        <v>0.3130182020352024</v>
       </c>
       <c r="H21">
-        <v>0.1473793450063923</v>
+        <v>0.4967894197710194</v>
       </c>
       <c r="I21">
-        <v>0.09324945694507569</v>
+        <v>0.3622062076362269</v>
       </c>
       <c r="J21">
-        <v>0.01025740003966646</v>
+        <v>0.03019562882661653</v>
       </c>
       <c r="K21">
-        <v>1.878748132759171</v>
+        <v>0.5958165318211002</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.5406647718339741</v>
+        <v>1.549586320485403</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.86735703278913</v>
+        <v>0.6024886078279792</v>
       </c>
       <c r="C22">
-        <v>0.2821761001990808</v>
+        <v>0.09715562299435021</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.921653658930509</v>
+        <v>0.9790692613905065</v>
       </c>
       <c r="F22">
-        <v>2.778410205054769</v>
+        <v>2.264043694985958</v>
       </c>
       <c r="G22">
-        <v>0.1338917457109119</v>
+        <v>0.309606056825757</v>
       </c>
       <c r="H22">
-        <v>0.1431015615297255</v>
+        <v>0.4926174254036795</v>
       </c>
       <c r="I22">
-        <v>0.08672519666462186</v>
+        <v>0.3574069451863178</v>
       </c>
       <c r="J22">
-        <v>0.01011587125178792</v>
+        <v>0.02987904682675513</v>
       </c>
       <c r="K22">
-        <v>2.011936593300248</v>
+        <v>0.6380670568677544</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5341693753828451</v>
+        <v>1.533770586157246</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.80046999738795</v>
+        <v>0.5814064501652751</v>
       </c>
       <c r="C23">
-        <v>0.2729553998121474</v>
+        <v>0.0942129331281194</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.849254122667617</v>
+        <v>0.9617920910171307</v>
       </c>
       <c r="F23">
-        <v>2.683154381500344</v>
+        <v>2.24731023064362</v>
       </c>
       <c r="G23">
-        <v>0.1332465207505464</v>
+        <v>0.3114022787407649</v>
       </c>
       <c r="H23">
-        <v>0.1453344477597653</v>
+        <v>0.4948236288433705</v>
       </c>
       <c r="I23">
-        <v>0.09014501124557484</v>
+        <v>0.3599469143581562</v>
       </c>
       <c r="J23">
-        <v>0.01018538437032035</v>
+        <v>0.03004614810897976</v>
       </c>
       <c r="K23">
-        <v>1.940821622947766</v>
+        <v>0.6155286217301068</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5373385076943293</v>
+        <v>1.542116644596462</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.547701950774325</v>
+        <v>0.5013657418063246</v>
       </c>
       <c r="C24">
-        <v>0.2381222885469754</v>
+        <v>0.08302839239745197</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1.579528101272004</v>
+        <v>0.8969980773824915</v>
       </c>
       <c r="F24">
-        <v>2.332958987948317</v>
+        <v>2.186267709266801</v>
       </c>
       <c r="G24">
-        <v>0.1327257965657864</v>
+        <v>0.3187511509977483</v>
       </c>
       <c r="H24">
-        <v>0.1548625019985934</v>
+        <v>0.5036287565942033</v>
       </c>
       <c r="I24">
-        <v>0.1044233812945095</v>
+        <v>0.3700381145888958</v>
       </c>
       <c r="J24">
-        <v>0.01057610815508347</v>
+        <v>0.03071991570066324</v>
       </c>
       <c r="K24">
-        <v>1.672060910115277</v>
+        <v>0.5299211013050638</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5556496255392602</v>
+        <v>1.575812328949553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.275807322977528</v>
+        <v>0.4146424860296634</v>
       </c>
       <c r="C25">
-        <v>0.2006717919561112</v>
+        <v>0.07088372230663254</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.296406219469688</v>
+        <v>0.8284752984282875</v>
       </c>
       <c r="F25">
-        <v>1.974377699234225</v>
+        <v>2.125388402271994</v>
       </c>
       <c r="G25">
-        <v>0.1358159272148924</v>
+        <v>0.3278371589872791</v>
       </c>
       <c r="H25">
-        <v>0.1672331315248172</v>
+        <v>0.5140855987005608</v>
       </c>
       <c r="I25">
-        <v>0.1224025156805197</v>
+        <v>0.38192661902794</v>
       </c>
       <c r="J25">
-        <v>0.01124065884364889</v>
+        <v>0.03153365842561584</v>
       </c>
       <c r="K25">
-        <v>1.382922896112007</v>
+        <v>0.4370848806532592</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5875003800384349</v>
+        <v>1.616597574751111</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_70/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3504725059204077</v>
+        <v>1.075826483996394</v>
       </c>
       <c r="C2">
-        <v>0.06187472207288636</v>
+        <v>0.1731363716447021</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.7791858807356533</v>
+        <v>1.093068459964741</v>
       </c>
       <c r="F2">
-        <v>2.084801462075916</v>
+        <v>1.723690949699261</v>
       </c>
       <c r="G2">
-        <v>0.3355176703624885</v>
+        <v>0.1408119964609611</v>
       </c>
       <c r="H2">
-        <v>0.5226100401035509</v>
+        <v>0.1779632965823374</v>
       </c>
       <c r="I2">
-        <v>0.3915410455148978</v>
+        <v>0.1376232352024234</v>
       </c>
       <c r="J2">
-        <v>0.03220732150366157</v>
+        <v>0.01191245541849728</v>
       </c>
       <c r="K2">
-        <v>0.3683213754531209</v>
+        <v>1.170218333852119</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.650432243815047</v>
+        <v>0.6200931958758531</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3067962237674919</v>
+        <v>0.9402367785012871</v>
       </c>
       <c r="C3">
-        <v>0.0557287456371256</v>
+        <v>0.15447074109629</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7465023004269682</v>
+        <v>0.9577510030292444</v>
       </c>
       <c r="F3">
-        <v>2.059924279027712</v>
+        <v>1.560711444254906</v>
       </c>
       <c r="G3">
-        <v>0.3413374901511581</v>
+        <v>0.1457028223362293</v>
       </c>
       <c r="H3">
-        <v>0.5289019443049661</v>
+        <v>0.1861651294262039</v>
       </c>
       <c r="I3">
-        <v>0.3985927972270229</v>
+        <v>0.1490674872055076</v>
       </c>
       <c r="J3">
-        <v>0.03271019660061292</v>
+        <v>0.01246950633301047</v>
       </c>
       <c r="K3">
-        <v>0.3214746140497766</v>
+        <v>1.02597400334966</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.675728951735252</v>
+        <v>0.6473047407850814</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2798900867041709</v>
+        <v>0.8568972386084397</v>
       </c>
       <c r="C4">
-        <v>0.05193563547808822</v>
+        <v>0.1429992536033637</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.7267885129920586</v>
+        <v>0.8756805606914355</v>
       </c>
       <c r="F4">
-        <v>2.045942136159567</v>
+        <v>1.463628549173421</v>
       </c>
       <c r="G4">
-        <v>0.3452129829686967</v>
+        <v>0.1493888716006246</v>
       </c>
       <c r="H4">
-        <v>0.5330191474058488</v>
+        <v>0.1916345433917748</v>
       </c>
       <c r="I4">
-        <v>0.4031865660489879</v>
+        <v>0.1566177678173029</v>
       </c>
       <c r="J4">
-        <v>0.03304176368915712</v>
+        <v>0.01285804022703996</v>
       </c>
       <c r="K4">
-        <v>0.2925936336646373</v>
+        <v>0.9373007521333534</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.692426282854726</v>
+        <v>0.6663611676186818</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2689041013607323</v>
+        <v>0.8229065725249711</v>
       </c>
       <c r="C5">
-        <v>0.05038512744557977</v>
+        <v>0.138320759393352</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.7188440264367699</v>
+        <v>0.8424626714523669</v>
       </c>
       <c r="F5">
-        <v>2.040568928464197</v>
+        <v>1.424759385509731</v>
       </c>
       <c r="G5">
-        <v>0.3468680766770973</v>
+        <v>0.151054344522553</v>
       </c>
       <c r="H5">
-        <v>0.5347607918027499</v>
+        <v>0.1939687844852962</v>
       </c>
       <c r="I5">
-        <v>0.4051248675279853</v>
+        <v>0.1598214240199871</v>
       </c>
       <c r="J5">
-        <v>0.03318260490973124</v>
+        <v>0.01302754314200438</v>
       </c>
       <c r="K5">
-        <v>0.2807958410727167</v>
+        <v>0.9011310700657305</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.699523170415851</v>
+        <v>0.6746920505531264</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2670786107846936</v>
+        <v>0.8172604864130335</v>
       </c>
       <c r="C6">
-        <v>0.05012738094880831</v>
+        <v>0.1375436414582509</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.7175302288004985</v>
+        <v>0.8369597390111352</v>
       </c>
       <c r="F6">
-        <v>2.039696306836731</v>
+        <v>1.418345401447581</v>
       </c>
       <c r="G6">
-        <v>0.3471474769070113</v>
+        <v>0.1513405248643842</v>
       </c>
       <c r="H6">
-        <v>0.5350538467618442</v>
+        <v>0.1943626482779663</v>
       </c>
       <c r="I6">
-        <v>0.4054507234423745</v>
+        <v>0.1603609148223502</v>
       </c>
       <c r="J6">
-        <v>0.03320633701843612</v>
+        <v>0.01305634900198971</v>
       </c>
       <c r="K6">
-        <v>0.2788351262796027</v>
+        <v>0.8951228143386913</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.700719263977774</v>
+        <v>0.6761088085522005</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.279742011926345</v>
+        <v>0.85643895577644</v>
       </c>
       <c r="C7">
-        <v>0.05191474401610208</v>
+        <v>0.1429361744203845</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.7266810103270984</v>
+        <v>0.8752316922891055</v>
       </c>
       <c r="F7">
-        <v>2.045868357314873</v>
+        <v>1.463101615013855</v>
       </c>
       <c r="G7">
-        <v>0.345234997455691</v>
+        <v>0.1494106820353167</v>
       </c>
       <c r="H7">
-        <v>0.5330423773111441</v>
+        <v>0.1916656015958687</v>
       </c>
       <c r="I7">
-        <v>0.4032124382973352</v>
+        <v>0.1566604659661834</v>
       </c>
       <c r="J7">
-        <v>0.03304363995398329</v>
+        <v>0.01286028163636566</v>
       </c>
       <c r="K7">
-        <v>0.2924346390354913</v>
+        <v>0.9368131051960518</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.692520809773256</v>
+        <v>0.6664712647787425</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3354318006182098</v>
+        <v>1.029088616935155</v>
       </c>
       <c r="C8">
-        <v>0.05975968994493996</v>
+        <v>0.1667020072576264</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.7678430900747486</v>
+        <v>1.046182413879251</v>
       </c>
       <c r="F8">
-        <v>2.075955290454033</v>
+        <v>1.666839452121565</v>
       </c>
       <c r="G8">
-        <v>0.3374615437623412</v>
+        <v>0.1423514168461217</v>
       </c>
       <c r="H8">
-        <v>0.5247267781224139</v>
+        <v>0.1806991162975606</v>
       </c>
       <c r="I8">
-        <v>0.3939176607297634</v>
+        <v>0.1414576323330641</v>
       </c>
       <c r="J8">
-        <v>0.03237597583319562</v>
+        <v>0.01209455314409169</v>
       </c>
       <c r="K8">
-        <v>0.3521933543580644</v>
+        <v>1.120500116709195</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.658912521137623</v>
+        <v>0.6289727321404754</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4439056410939202</v>
+        <v>1.367334721964795</v>
       </c>
       <c r="C9">
-        <v>0.07498523025151371</v>
+        <v>0.2132768143946748</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8513757701753946</v>
+        <v>1.390879640478843</v>
       </c>
       <c r="F9">
-        <v>2.145235300228478</v>
+        <v>2.092896367806148</v>
       </c>
       <c r="G9">
-        <v>0.3246222282724744</v>
+        <v>0.1343255125340335</v>
       </c>
       <c r="H9">
-        <v>0.5104350354312857</v>
+        <v>0.1628027352489951</v>
       </c>
       <c r="I9">
-        <v>0.3777880681614896</v>
+        <v>0.1160232008868771</v>
       </c>
       <c r="J9">
-        <v>0.03124795385230783</v>
+        <v>0.01098676336101079</v>
       </c>
       <c r="K9">
-        <v>0.4684216205588996</v>
+        <v>1.480260938757397</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.602267093407747</v>
+        <v>0.5752705366245863</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5231218670642193</v>
+        <v>1.616227817992666</v>
       </c>
       <c r="C10">
-        <v>0.0860705658720633</v>
+        <v>0.2475638233254358</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9144764519537318</v>
+        <v>1.652041330313793</v>
       </c>
       <c r="F10">
-        <v>2.202443894595731</v>
+        <v>2.426343666055175</v>
       </c>
       <c r="G10">
-        <v>0.3166649825801784</v>
+        <v>0.1325588254795917</v>
       </c>
       <c r="H10">
-        <v>0.5011633684872621</v>
+        <v>0.1521027475955492</v>
       </c>
       <c r="I10">
-        <v>0.3672200502992418</v>
+        <v>0.1003334092573986</v>
       </c>
       <c r="J10">
-        <v>0.03053018056527534</v>
+        <v>0.01044959413545143</v>
       </c>
       <c r="K10">
-        <v>0.5531967362810803</v>
+        <v>1.744925261899994</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.56631656932089</v>
+        <v>0.5496643582376635</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5590489308034989</v>
+        <v>1.729680145428716</v>
       </c>
       <c r="C11">
-        <v>0.09109082501568366</v>
+        <v>0.2631982145274492</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9435615044658192</v>
+        <v>1.773095103334967</v>
       </c>
       <c r="F11">
-        <v>2.229849005995732</v>
+        <v>2.583506487275571</v>
       </c>
       <c r="G11">
-        <v>0.3133676216437919</v>
+        <v>0.1327904178812105</v>
       </c>
       <c r="H11">
-        <v>0.4972122023250094</v>
+        <v>0.1478256813399739</v>
       </c>
       <c r="I11">
-        <v>0.3626916345092983</v>
+        <v>0.0939238397696176</v>
       </c>
       <c r="J11">
-        <v>0.03022784936530343</v>
+        <v>0.01027408697520649</v>
       </c>
       <c r="K11">
-        <v>0.5916224150017513</v>
+        <v>1.865555565718239</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.551196860365067</v>
+        <v>0.5414400160363044</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5726372330994423</v>
+        <v>1.772686867026863</v>
       </c>
       <c r="C12">
-        <v>0.09298853506096805</v>
+        <v>0.2691257805413017</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.9546300566779991</v>
+        <v>1.819306620465994</v>
       </c>
       <c r="F12">
-        <v>2.240425743223255</v>
+        <v>2.643901530750725</v>
       </c>
       <c r="G12">
-        <v>0.3121655423278682</v>
+        <v>0.1330394477933723</v>
       </c>
       <c r="H12">
-        <v>0.4957543403758962</v>
+        <v>0.1462962920215247</v>
       </c>
       <c r="I12">
-        <v>0.3610170429211745</v>
+        <v>0.09160831980716111</v>
       </c>
       <c r="J12">
-        <v>0.03011685169712308</v>
+        <v>0.01021832452584626</v>
       </c>
       <c r="K12">
-        <v>0.6061525108909223</v>
+        <v>1.911281909809901</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.545649329663831</v>
+        <v>0.5388556344360893</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5697114963139143</v>
+        <v>1.763422410247586</v>
       </c>
       <c r="C13">
-        <v>0.09257998021055869</v>
+        <v>0.2678488236127947</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9522438143046514</v>
+        <v>1.809336834472688</v>
       </c>
       <c r="F13">
-        <v>2.238138994601371</v>
+        <v>2.630853623147317</v>
       </c>
       <c r="G13">
-        <v>0.3124223577673675</v>
+        <v>0.1329784316073557</v>
       </c>
       <c r="H13">
-        <v>0.4960666105640144</v>
+        <v>0.1466215706758405</v>
       </c>
       <c r="I13">
-        <v>0.3613759057855379</v>
+        <v>0.09210192670379591</v>
       </c>
       <c r="J13">
-        <v>0.03014060170789001</v>
+        <v>0.01022984480431433</v>
       </c>
       <c r="K13">
-        <v>0.6030241373660203</v>
+        <v>1.901431651375646</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.546836166621901</v>
+        <v>0.5393880276812268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5601671841048983</v>
+        <v>1.733217365802091</v>
       </c>
       <c r="C14">
-        <v>0.09124701862415918</v>
+        <v>0.2636857243165167</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9444710251801354</v>
+        <v>1.776889227401256</v>
       </c>
       <c r="F14">
-        <v>2.23071516917642</v>
+        <v>2.588457004804098</v>
       </c>
       <c r="G14">
-        <v>0.3132677916159494</v>
+        <v>0.1328075978828451</v>
       </c>
       <c r="H14">
-        <v>0.4970914942155034</v>
+        <v>0.1476980170097733</v>
       </c>
       <c r="I14">
-        <v>0.3625530582020726</v>
+        <v>0.09373106131310038</v>
       </c>
       <c r="J14">
-        <v>0.03021864754398251</v>
+        <v>0.01026928016985096</v>
       </c>
       <c r="K14">
-        <v>0.5928182382030514</v>
+        <v>1.869316495523236</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.550736892075591</v>
+        <v>0.5412165504172179</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.554318843659388</v>
+        <v>1.714722102471995</v>
       </c>
       <c r="C15">
-        <v>0.09043010107218663</v>
+        <v>0.2611366957248009</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9397170875184315</v>
+        <v>1.757063943760002</v>
       </c>
       <c r="F15">
-        <v>2.22619379391017</v>
+        <v>2.562605483776366</v>
       </c>
       <c r="G15">
-        <v>0.313791713475851</v>
+        <v>0.1327243522165702</v>
       </c>
       <c r="H15">
-        <v>0.4977242613360531</v>
+        <v>0.1483692887514962</v>
       </c>
       <c r="I15">
-        <v>0.3632793389189306</v>
+        <v>0.0947437081797684</v>
       </c>
       <c r="J15">
-        <v>0.03026690750081507</v>
+        <v>0.01029485340950664</v>
       </c>
       <c r="K15">
-        <v>0.586564085305298</v>
+        <v>1.849651456847482</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.55314939071755</v>
+        <v>0.5424067569492337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5207716867633394</v>
+        <v>1.608819046142031</v>
       </c>
       <c r="C16">
-        <v>0.08574201717631524</v>
+        <v>0.246542977586131</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9125833263486953</v>
+        <v>1.644179420548852</v>
       </c>
       <c r="F16">
-        <v>2.200680729225098</v>
+        <v>2.416190701914942</v>
       </c>
       <c r="G16">
-        <v>0.3168869776419783</v>
+        <v>0.1325655679728257</v>
       </c>
       <c r="H16">
-        <v>0.5014269527496751</v>
+        <v>0.1523945927394479</v>
       </c>
       <c r="I16">
-        <v>0.367521615999717</v>
+        <v>0.100767521706608</v>
       </c>
       <c r="J16">
-        <v>0.03055042622823301</v>
+        <v>0.01046251623065864</v>
       </c>
       <c r="K16">
-        <v>0.5506826552964412</v>
+        <v>1.73704754433831</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.567329557035563</v>
+        <v>0.5502738953463933</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5001631198233554</v>
+        <v>1.543917833545947</v>
       </c>
       <c r="C17">
-        <v>0.08286018043256149</v>
+        <v>0.2376009466805868</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8960350271721609</v>
+        <v>1.575537154043815</v>
       </c>
       <c r="F17">
-        <v>2.185383246821175</v>
+        <v>2.327836486964813</v>
       </c>
       <c r="G17">
-        <v>0.3188685427063618</v>
+        <v>0.1327419104065513</v>
       </c>
       <c r="H17">
-        <v>0.5037667264434873</v>
+        <v>0.1550188900833476</v>
       </c>
       <c r="I17">
-        <v>0.3701956506620014</v>
+        <v>0.1046541705091215</v>
       </c>
       <c r="J17">
-        <v>0.0307305582177726</v>
+        <v>0.01058355547821854</v>
       </c>
       <c r="K17">
-        <v>0.5286343349047513</v>
+        <v>1.668037141312254</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.576345118237626</v>
+        <v>0.5560030605964954</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4882994276139243</v>
+        <v>1.506609223819055</v>
       </c>
       <c r="C18">
-        <v>0.08120051173968079</v>
+        <v>0.2324610956490147</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8865526728451982</v>
+        <v>1.536264623413729</v>
       </c>
       <c r="F18">
-        <v>2.176714462415873</v>
+        <v>2.27752684884689</v>
       </c>
       <c r="G18">
-        <v>0.3200386235599169</v>
+        <v>0.1329399862942751</v>
       </c>
       <c r="H18">
-        <v>0.505137590754174</v>
+        <v>0.1565835476942752</v>
       </c>
       <c r="I18">
-        <v>0.3717599423465963</v>
+        <v>0.1069577267384219</v>
       </c>
       <c r="J18">
-        <v>0.03083644138678032</v>
+        <v>0.01065960372041985</v>
       </c>
       <c r="K18">
-        <v>0.5159396990398193</v>
+        <v>1.628365305728892</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.581646786490978</v>
+        <v>0.5596182084082812</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4842808612495162</v>
+        <v>1.493980407786324</v>
       </c>
       <c r="C19">
-        <v>0.08063821715454367</v>
+        <v>0.230721355884171</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.8833482576496152</v>
+        <v>1.523002084038708</v>
       </c>
       <c r="F19">
-        <v>2.173801660684092</v>
+        <v>2.260577637252581</v>
       </c>
       <c r="G19">
-        <v>0.3204399973077514</v>
+        <v>0.1330232852320421</v>
       </c>
       <c r="H19">
-        <v>0.5056060499691739</v>
+        <v>0.1571226431234791</v>
       </c>
       <c r="I19">
-        <v>0.3722940914518347</v>
+        <v>0.1077491549602634</v>
       </c>
       <c r="J19">
-        <v>0.03087268219696782</v>
+        <v>0.01068643333448094</v>
       </c>
       <c r="K19">
-        <v>0.511639303703447</v>
+        <v>1.614936360978817</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.583461775681727</v>
+        <v>0.5608960716321576</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5023579977261932</v>
+        <v>1.550824438201971</v>
       </c>
       <c r="C20">
-        <v>0.0831671763391455</v>
+        <v>0.2385524797607133</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8977929178045372</v>
+        <v>1.582822312029265</v>
       </c>
       <c r="F20">
-        <v>2.186998239914985</v>
+        <v>2.337188574888785</v>
       </c>
       <c r="G20">
-        <v>0.3186544605405999</v>
+        <v>0.1327130482208361</v>
       </c>
       <c r="H20">
-        <v>0.5035150567870872</v>
+        <v>0.1547337754194302</v>
       </c>
       <c r="I20">
-        <v>0.3699082768318718</v>
+        <v>0.1042333371456472</v>
       </c>
       <c r="J20">
-        <v>0.0307111472257624</v>
+        <v>0.01056999961467042</v>
       </c>
       <c r="K20">
-        <v>0.5309827707937416</v>
+        <v>1.675381141512872</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.575373371212507</v>
+        <v>0.5553598102559363</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.562971034457064</v>
+        <v>1.74208800537491</v>
       </c>
       <c r="C21">
-        <v>0.0916386336742363</v>
+        <v>0.2649083176780209</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.946752597939394</v>
+        <v>1.786409404007358</v>
       </c>
       <c r="F21">
-        <v>2.232890321555089</v>
+        <v>2.600885226434769</v>
       </c>
       <c r="G21">
-        <v>0.3130182020352024</v>
+        <v>0.1328532937109372</v>
       </c>
       <c r="H21">
-        <v>0.4967894197710194</v>
+        <v>0.1473793450063852</v>
       </c>
       <c r="I21">
-        <v>0.3622062076362269</v>
+        <v>0.09324945694507214</v>
       </c>
       <c r="J21">
-        <v>0.03019562882661653</v>
+        <v>0.01025740003965403</v>
       </c>
       <c r="K21">
-        <v>0.5958165318211002</v>
+        <v>1.878748132759085</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.549586320485403</v>
+        <v>0.5406647718339599</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6024886078279792</v>
+        <v>1.867357032789101</v>
       </c>
       <c r="C22">
-        <v>0.09715562299435021</v>
+        <v>0.2821761001989103</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.9790692613905065</v>
+        <v>1.921653658930524</v>
       </c>
       <c r="F22">
-        <v>2.264043694985958</v>
+        <v>2.778410205054797</v>
       </c>
       <c r="G22">
-        <v>0.309606056825757</v>
+        <v>0.1338917457108906</v>
       </c>
       <c r="H22">
-        <v>0.4926174254036795</v>
+        <v>0.1431015615297326</v>
       </c>
       <c r="I22">
-        <v>0.3574069451863178</v>
+        <v>0.08672519666463785</v>
       </c>
       <c r="J22">
-        <v>0.02987904682675513</v>
+        <v>0.01011587125168667</v>
       </c>
       <c r="K22">
-        <v>0.6380670568677544</v>
+        <v>2.011936593300391</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.533770586157246</v>
+        <v>0.5341693753828594</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5814064501652751</v>
+        <v>1.800469997387978</v>
       </c>
       <c r="C23">
-        <v>0.0942129331281194</v>
+        <v>0.2729553998122043</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.9617920910171307</v>
+        <v>1.849254122667617</v>
       </c>
       <c r="F23">
-        <v>2.24731023064362</v>
+        <v>2.683154381500316</v>
       </c>
       <c r="G23">
-        <v>0.3114022787407649</v>
+        <v>0.1332465207504896</v>
       </c>
       <c r="H23">
-        <v>0.4948236288433705</v>
+        <v>0.1453344477597582</v>
       </c>
       <c r="I23">
-        <v>0.3599469143581562</v>
+        <v>0.09014501124556062</v>
       </c>
       <c r="J23">
-        <v>0.03004614810897976</v>
+        <v>0.01018538437049088</v>
       </c>
       <c r="K23">
-        <v>0.6155286217301068</v>
+        <v>1.940821622947794</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.542116644596462</v>
+        <v>0.5373385076943293</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5013657418063246</v>
+        <v>1.547701950774297</v>
       </c>
       <c r="C24">
-        <v>0.08302839239745197</v>
+        <v>0.2381222885467196</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8969980773824915</v>
+        <v>1.57952810127199</v>
       </c>
       <c r="F24">
-        <v>2.186267709266801</v>
+        <v>2.332958987948317</v>
       </c>
       <c r="G24">
-        <v>0.3187511509977483</v>
+        <v>0.1327257965658291</v>
       </c>
       <c r="H24">
-        <v>0.5036287565942033</v>
+        <v>0.1548625019984797</v>
       </c>
       <c r="I24">
-        <v>0.3700381145888958</v>
+        <v>0.1044233812945059</v>
       </c>
       <c r="J24">
-        <v>0.03071991570066324</v>
+        <v>0.01057610815513854</v>
       </c>
       <c r="K24">
-        <v>0.5299211013050638</v>
+        <v>1.672060910115277</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.575812328949553</v>
+        <v>0.555649625539246</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4146424860296634</v>
+        <v>1.275807322977556</v>
       </c>
       <c r="C25">
-        <v>0.07088372230663254</v>
+        <v>0.2006717919560543</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.8284752984282875</v>
+        <v>1.296406219469716</v>
       </c>
       <c r="F25">
-        <v>2.125388402271994</v>
+        <v>1.974377699234211</v>
       </c>
       <c r="G25">
-        <v>0.3278371589872791</v>
+        <v>0.1358159272148427</v>
       </c>
       <c r="H25">
-        <v>0.5140855987005608</v>
+        <v>0.1672331315249309</v>
       </c>
       <c r="I25">
-        <v>0.38192661902794</v>
+        <v>0.1224025156805144</v>
       </c>
       <c r="J25">
-        <v>0.03153365842561584</v>
+        <v>0.01124065884369863</v>
       </c>
       <c r="K25">
-        <v>0.4370848806532592</v>
+        <v>1.38292289611195</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.616597574751111</v>
+        <v>0.5875003800383496</v>
       </c>
     </row>
   </sheetData>
